--- a/untranslated/downloads/data-excel/2.1.2.1d.xlsx
+++ b/untranslated/downloads/data-excel/2.1.2.1d.xlsx
@@ -24,9 +24,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>(процент)</t>
-  </si>
   <si>
     <t xml:space="preserve">Зерно и продукты переработки </t>
   </si>
@@ -131,12 +128,6 @@
     <t>2.1.2.1d Отношение объема импорта продукции сельского хозяйства к объему производства в республике</t>
   </si>
   <si>
-    <t>(percent)</t>
-  </si>
-  <si>
-    <t>(пайыз)</t>
-  </si>
-  <si>
     <t>Дан жана кайра иштетилген продуктылар</t>
   </si>
   <si>
@@ -172,6 +163,15 @@
   <si>
     <t>2.1.2.1d Айыл чарба продукциясынын импортунун көлөмүнүн өлкөдөгү өндүрүштүн көлөмүнө катышы</t>
   </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +181,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +266,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -358,9 +365,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -371,6 +375,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8148,9 +8155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8161,15 +8166,15 @@
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="24" t="s">
+    <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>26</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -8181,14 +8186,14 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>28</v>
+      <c r="A2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -8208,19 +8213,19 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="21">
         <v>2018</v>
@@ -8237,19 +8242,21 @@
       <c r="H4" s="22">
         <v>2022</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="22">
+        <v>2023</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="9">
         <v>16.602255280851288</v>
@@ -8263,22 +8270,24 @@
       <c r="G5" s="11">
         <v>35.5</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>32.9</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="5">
+        <v>34.799999999999997</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="9">
         <v>47.264166260756625</v>
@@ -8292,22 +8301,24 @@
       <c r="G6" s="11">
         <v>104.9</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>75.400000000000006</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="5">
+        <v>108.5</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>32</v>
+      <c r="A7" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="9">
         <v>37.90771678599841</v>
@@ -8321,22 +8332,24 @@
       <c r="G7" s="11">
         <v>66.5</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>66.099999999999994</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="5">
+        <v>81.2</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="9">
         <v>0.72583990045624225</v>
@@ -8350,22 +8363,24 @@
       <c r="G8" s="11">
         <v>2.7228298813125438</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
         <v>3.2</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="5">
+        <v>2.5</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>34</v>
+      <c r="A9" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="9">
         <v>3.9360119047619047</v>
@@ -8379,22 +8394,24 @@
       <c r="G9" s="11">
         <v>8.692405346874768</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>10.6</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="5">
+        <v>11.1</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="9">
         <v>15.047446904654313</v>
@@ -8408,22 +8425,24 @@
       <c r="G10" s="11">
         <v>19.2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="5">
         <v>23.5</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="5">
+        <v>23.4</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="9">
         <v>1.0127697049757818</v>
@@ -8437,22 +8456,24 @@
       <c r="G11" s="15">
         <v>1.8</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="5">
         <v>1.8</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>37</v>
+      <c r="A12" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="9">
         <v>0.623375035443543</v>
@@ -8466,22 +8487,24 @@
       <c r="G12" s="11">
         <v>16.3</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="5">
         <v>29.2</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="5">
+        <v>32.299999999999997</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="9">
         <v>66.938775510204081</v>
@@ -8495,22 +8518,24 @@
       <c r="G13" s="11">
         <v>142.6</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5">
         <v>110.7</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="5">
+        <v>89</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="9">
         <v>396.58119658119659</v>
@@ -8524,22 +8549,24 @@
       <c r="G14" s="11">
         <v>1018.6</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="5">
         <v>1120</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="5">
+        <v>989.2</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="17">
         <v>171.18742724097788</v>
@@ -8556,7 +8583,9 @@
       <c r="H15" s="19">
         <v>14.5</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="19">
+        <v>11</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
